--- a/(2분반)2015136111_임세정_마이크로프로세서 및 실습_재료구매신청서.xlsx
+++ b/(2분반)2015136111_임세정_마이크로프로세서 및 실습_재료구매신청서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ODDHIVE/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ODDHIVE/2015136111/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,10 +106,10 @@
     <t xml:space="preserve">ADA-779 [ Diffused Green 3mm LED (25 pack)] </t>
   </si>
   <si>
-    <t>ADA-1611 [4x4 실리콘 버튼 키패드 (Silicone Elastomer 4x4 Button Keypad - for 3mm LEDs) ]</t>
-  </si>
-  <si>
-    <t>ADA-1616 [4x4 키패드 PCB 보드 (Adafruit Trellis Monochrome Driver PCB for 4x4 Keypad &amp; 3mm LEDs) ]</t>
+    <t>ADA-1611 [4x4 실리콘 버튼 키패드 ]</t>
+  </si>
+  <si>
+    <t>ADA-1616 [4x4 키패드 PCB 보드 ]</t>
   </si>
 </sst>
 </file>
@@ -253,15 +253,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -284,6 +275,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -687,13 +687,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="2" max="2" width="76.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
     <col min="6" max="6" width="80.1640625" customWidth="1"/>
     <col min="7" max="7" width="32.1640625" customWidth="1"/>
@@ -703,66 +703,66 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="11">
         <v>2015136111</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -791,32 +791,32 @@
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>6209</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>18627</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="I7" s="12"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>7700</v>
       </c>
       <c r="D8" s="2">
@@ -825,7 +825,7 @@
       <c r="E8" s="2">
         <v>23100</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="2"/>
@@ -834,10 +834,10 @@
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>14300</v>
       </c>
       <c r="D9" s="2">
@@ -846,7 +846,7 @@
       <c r="E9" s="2">
         <v>57200</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="2"/>
@@ -921,7 +921,7 @@
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="4">
         <f>SUM(E7:E16)</f>
         <v>98927</v>
       </c>
@@ -929,7 +929,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E18" s="8"/>
+      <c r="E18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
